--- a/BASE_DADOS.xlsx
+++ b/BASE_DADOS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1284,6 +1284,5298 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2050336</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2050353</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2050379</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2050394</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1230348</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1230369</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1230373</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1232102</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1232103</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1232291</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1237931</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1237965</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1237974</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1237975</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2047914</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2047915</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2047955</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2047956</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2047964</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2047965</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2050358</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2050380</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2050385</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1230329</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1230342</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1230346</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1230362</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1237905</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1237923</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1237929</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1237953</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2047875</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2047876</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2047902</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2047903</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2047910</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2047911</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2047942</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2047943</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2050352</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2050356</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2050373</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1230330</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1230353</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1230358</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1230378</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1237906</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1237936</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1237937</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1237942</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1237981</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1238008</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2047877</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2047878</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2047924</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2047925</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2047934</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2047935</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2047974</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2047975</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2050363</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2050368</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2050389</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1237897</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1237899</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1237910</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1237926</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1237948</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1237985</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1238007</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2047253</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2047267</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2047312</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2047360</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1230333</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1237898</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1237909</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1237956</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1237969</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1237970</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1237971</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1237996</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2047883</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2047884</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2050341</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2050351</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2050366</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2050371</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2050384</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2050390</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2050395</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2050333</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2050376</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2050382</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2050399</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1237915</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1237955</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1237977</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1237980</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1237990</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1238001</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1238013</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2050346</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2050375</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2050388</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2050392</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2050402</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2050405</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1237927</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1237928</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1237932</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1237966</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1237979</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2050354</v>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2050355</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2050360</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>2050381</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1230331</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1230352</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1230357</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1230359</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1230380</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1237900</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1237907</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1237934</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1237941</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1237944</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1237988</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1238010</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>2047869</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2047879</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2047880</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2047922</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2047923</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C165" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2047932</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>2047933</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C167" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>2047936</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>2047937</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2047978</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2047979</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C171" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2047997</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C172" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2047998</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C173" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2050334</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>2050339</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C175" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2050362</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C176" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2050367</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C177" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2050369</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C178" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2050391</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C179" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>2050403</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C180" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1231776</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C181" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1231784</v>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C182" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1231793</v>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C183" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1231807</v>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C184" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1231813</v>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C185" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1231820</v>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C186" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1231864</v>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C187" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1231871</v>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C188" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1231892</v>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C189" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1231898</v>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C190" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1234515</v>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C191" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1234532</v>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C192" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1234539</v>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C193" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1234544</v>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C194" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1234547</v>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C195" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1234553</v>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C196" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2048307</v>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C197" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2048308</v>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C198" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2048341</v>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C199" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2048342</v>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C200" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2048355</v>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C201" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2048356</v>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C202" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>2048366</v>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C203" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>2048367</v>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C204" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>2048372</v>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C205" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>2048373</v>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C206" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>2048384</v>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C207" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>2048385</v>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C208" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1230382</v>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C209" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1237991</v>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C210" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>2047982</v>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C211" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>2047983</v>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C212" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D212" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2050393</v>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C213" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>1230386</v>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C214" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1237916</v>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C215" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1237938</v>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C216" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>1237951</v>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C217" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>1237995</v>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C218" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>1238661</v>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C219" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>2047893</v>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C220" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>2047989</v>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C221" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2047990</v>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C222" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>2050347</v>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C223" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>2050359</v>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C224" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2050364</v>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C225" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2050372</v>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C226" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D226" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2050397</v>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C227" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D227" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BASE_DADOS.xlsx
+++ b/BASE_DADOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G850"/>
+  <dimension ref="A1:G1077"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24643,6 +24643,6589 @@
         </is>
       </c>
     </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>1240607</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C851" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D851" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E851" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F851" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G851" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>1240621</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C852" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D852" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E852" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F852" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G852" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>1240623</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C853" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D853" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E853" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F853" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G853" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>1240624</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C854" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D854" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E854" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F854" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G854" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>1240631</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C855" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D855" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E855" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F855" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G855" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>1240667</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C856" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D856" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E856" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F856" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G856" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>1240687</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C857" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D857" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E857" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F857" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G857" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>1240692</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C858" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D858" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E858" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F858" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G858" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>1238030</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C859" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D859" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E859" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F859" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G859" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>1238035</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C860" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D860" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E860" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F860" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G860" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>1238046</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C861" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D861" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E861" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F861" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G861" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>1238070</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C862" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D862" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E862" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F862" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G862" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>1238075</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C863" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D863" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E863" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F863" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G863" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>1238083</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C864" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D864" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E864" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F864" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G864" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>1238111</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C865" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D865" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E865" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F865" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G865" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>1238122</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C866" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D866" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E866" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F866" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G866" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>2052677</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C867" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D867" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E867" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F867" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G867" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>2052686</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C868" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D868" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E868" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F868" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>2052687</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C869" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D869" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E869" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F869" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G869" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>2052712</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C870" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D870" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E870" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F870" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G870" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>2052713</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C871" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D871" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E871" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F871" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G871" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>2052714</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C872" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D872" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E872" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F872" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>2052770</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C873" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D873" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E873" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F873" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>2052771</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C874" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D874" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E874" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>2052782</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C875" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D875" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E875" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G875" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>2052783</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C876" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D876" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E876" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G876" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>2052800</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C877" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D877" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E877" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F877" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G877" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>2052801</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C878" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D878" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E878" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F878" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>2052857</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C879" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D879" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E879" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F879" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>2052858</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C880" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D880" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E880" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F880" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G880" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>2052878</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C881" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D881" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E881" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F881" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G881" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>2052879</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C882" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D882" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E882" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F882" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G882" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>2052880</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C883" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D883" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E883" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F883" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G883" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>1238062</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C884" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D884" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E884" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F884" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>1238064</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C885" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D885" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E885" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F885" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>1238090</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C886" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D886" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E886" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F886" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>1238098</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C887" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D887" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E887" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F887" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G887" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>1238106</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C888" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D888" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E888" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F888" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G888" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>2052751</v>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C889" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D889" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E889" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F889" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>2052752</v>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C890" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D890" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E890" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F890" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>2052756</v>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C891" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D891" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E891" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F891" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>2052757</v>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C892" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D892" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E892" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F892" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G892" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>2052815</v>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C893" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D893" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E893" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F893" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G893" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>2052816</v>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C894" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D894" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E894" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F894" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G894" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>2052817</v>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C895" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D895" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E895" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F895" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G895" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>2052831</v>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C896" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D896" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E896" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F896" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G896" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>2052832</v>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C897" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D897" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E897" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F897" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G897" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>2052848</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C898" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D898" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E898" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F898" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G898" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>2052849</v>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C899" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D899" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E899" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F899" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G899" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>1238034</v>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C900" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D900" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E900" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F900" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G900" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>1238056</v>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C901" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D901" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E901" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F901" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G901" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>1238078</v>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C902" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D902" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E902" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F902" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G902" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>1238084</v>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C903" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D903" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E903" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F903" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G903" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>1238135</v>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C904" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D904" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E904" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F904" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G904" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>2052738</v>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C905" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D905" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E905" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F905" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G905" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>2052739</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C906" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D906" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E906" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F906" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>2052788</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C907" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D907" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E907" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>2052789</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C908" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D908" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E908" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>2052802</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C909" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D909" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E909" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>2052803</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C910" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D910" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E910" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G910" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>2052907</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C911" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D911" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E911" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F911" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>2052908</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C912" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D912" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E912" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>1238032</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C913" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D913" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E913" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F913" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G913" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>1238039</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C914" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D914" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E914" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F914" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G914" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>1238052</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C915" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D915" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E915" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F915" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>1238058</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C916" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D916" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E916" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F916" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G916" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>1238063</v>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C917" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D917" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E917" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F917" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G917" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>1238125</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C918" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D918" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E918" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F918" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G918" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>2052681</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C919" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D919" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E919" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F919" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G919" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>2052682</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C920" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D920" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E920" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F920" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G920" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>2052683</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C921" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D921" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E921" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F921" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G921" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>2052695</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C922" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D922" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E922" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F922" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>2052696</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C923" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D923" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E923" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F923" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G923" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>2052727</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C924" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D924" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E924" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G924" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>2052728</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C925" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D925" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E925" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G925" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>2052729</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C926" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D926" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E926" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F926" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G926" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>2052743</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C927" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D927" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E927" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F927" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>2052744</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C928" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D928" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E928" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F928" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>2052753</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C929" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D929" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E929" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F929" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G929" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>2052754</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C930" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D930" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E930" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F930" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G930" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>2052755</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C931" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D931" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E931" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F931" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G931" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>2052884</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C932" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D932" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E932" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F932" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G932" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>2052885</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C933" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D933" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E933" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>2052886</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C934" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D934" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E934" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F934" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>1238040</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C935" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D935" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E935" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F935" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>1238065</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C936" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D936" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E936" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F936" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G936" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>1238071</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C937" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D937" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E937" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>1238073</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C938" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D938" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E938" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>1238113</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C939" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D939" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E939" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>1240457</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C940" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D940" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E940" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F940" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>2052697</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C941" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D941" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E941" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F941" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G941" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>2052698</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C942" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D942" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E942" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F942" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G942" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>2052758</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C943" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D943" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E943" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F943" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>2052759</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C944" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D944" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E944" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F944" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>2052760</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C945" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D945" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E945" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F945" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>2052772</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C946" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D946" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E946" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F946" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>2052773</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C947" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D947" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E947" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F947" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>2052777</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C948" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D948" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E948" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F948" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G948" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>2052778</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C949" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D949" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E949" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F949" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G949" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>2052861</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C950" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D950" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E950" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F950" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>1238047</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C951" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D951" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E951" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F951" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>1238110</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C952" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D952" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E952" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F952" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>1238131</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C953" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D953" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E953" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F953" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>1238138</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C954" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D954" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E954" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F954" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>2052715</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C955" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D955" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E955" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F955" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>2052716</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C956" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D956" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E956" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F956" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>2052855</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C957" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D957" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E957" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F957" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>2052856</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C958" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D958" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E958" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F958" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>2052899</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C959" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D959" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E959" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F959" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G959" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>2052900</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C960" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D960" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E960" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F960" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G960" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>2052914</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C961" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D961" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E961" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F961" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>1238026</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C962" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D962" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E962" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F962" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>1240432</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C963" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D963" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E963" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F963" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>1240434</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C964" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D964" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E964" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F964" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G964" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>1240435</v>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C965" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D965" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E965" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F965" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G965" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>1240439</v>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C966" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D966" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E966" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F966" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G966" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>2052669</v>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C967" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D967" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E967" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F967" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G967" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>2052670</v>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C968" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D968" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E968" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F968" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>1236580</v>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10/01/24</t>
+        </is>
+      </c>
+      <c r="C969" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D969" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E969" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F969" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>1236581</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10/01/24</t>
+        </is>
+      </c>
+      <c r="C970" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D970" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E970" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F970" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>1236594</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10/01/24</t>
+        </is>
+      </c>
+      <c r="C971" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D971" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E971" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F971" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G971" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>1238104</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C972" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D972" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E972" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F972" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>1240590</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C973" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D973" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E973" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F973" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>1240591</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C974" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D974" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E974" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F974" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G974" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>1240660</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C975" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D975" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E975" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F975" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G975" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>1240661</v>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C976" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D976" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E976" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F976" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>2052844</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C977" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D977" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E977" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F977" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>2052845</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C978" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D978" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E978" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F978" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>1240593</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C979" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D979" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E979" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F979" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>1240622</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C980" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D980" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E980" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F980" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>1240627</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C981" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D981" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E981" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F981" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G981" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>1240653</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C982" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D982" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E982" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F982" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G982" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>1240663</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C983" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D983" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E983" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F983" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>1240664</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C984" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D984" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E984" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F984" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G984" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>1240665</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C985" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D985" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E985" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F985" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G985" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>1240666</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C986" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D986" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E986" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F986" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G986" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>1240630</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C987" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D987" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E987" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F987" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G987" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>1240639</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C988" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D988" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E988" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F988" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G988" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>1240648</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C989" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D989" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E989" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F989" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G989" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>1240649</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C990" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D990" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E990" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F990" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G990" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>1240658</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C991" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D991" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E991" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F991" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>1240678</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C992" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D992" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E992" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F992" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G992" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>1231763</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/01/24</t>
+        </is>
+      </c>
+      <c r="C993" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D993" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E993" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F993" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G993" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>1231853</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/01/24</t>
+        </is>
+      </c>
+      <c r="C994" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D994" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E994" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F994" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G994" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>1236582</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10/01/24</t>
+        </is>
+      </c>
+      <c r="C995" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D995" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E995" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F995" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G995" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>1236584</v>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10/01/24</t>
+        </is>
+      </c>
+      <c r="C996" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D996" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E996" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F996" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G996" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>1240458</v>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C997" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D997" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E997" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F997" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G997" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>1240619</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C998" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D998" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E998" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F998" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G998" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>1240628</v>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C999" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D999" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E999" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F999" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G999" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>1240633</v>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/01/24</t>
+        </is>
+      </c>
+      <c r="C1000" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1000" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1000" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1000" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1000" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>2050422</v>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1001" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1001" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1001" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1001" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1001" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>2050431</v>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1002" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1002" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1002" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1002" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1002" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>2057265</v>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1003" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1003" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1003" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1003" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1003" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>2057291</v>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1004" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1004" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1004" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1004" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1004" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>2057320</v>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1005" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1005" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1005" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1005" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1005" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>2057374</v>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1006" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1006" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1006" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1006" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1006" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>2057375</v>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1007" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1007" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1007" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1007" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1007" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>2057470</v>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1008" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1008" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1008" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1008" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1008" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>2057473</v>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1009" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1009" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1009" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1009" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1009" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>2047276</v>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/01/24</t>
+        </is>
+      </c>
+      <c r="C1010" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1010" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1010" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1010" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1010" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>2050406</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1011" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1011" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1011" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1011" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1011" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>2050414</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1012" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1012" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1012" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1012" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1012" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>2050420</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1013" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1013" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1013" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1013" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1013" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>2050428</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1014" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1014" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1014" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1014" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1014" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>2050438</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1015" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1015" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1015" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1015" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1015" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>2050457</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1016" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1016" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1016" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1016" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1016" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>2057302</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1017" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1017" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1017" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1017" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1017" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>1243087</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1018" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1018" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1018" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1018" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1018" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>1243119</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1019" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1019" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1019" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1019" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1019" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>1243120</v>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1020" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1020" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1020" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1020" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1020" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>1243121</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1021" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1021" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1021" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1021" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1021" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>2050407</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1022" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1022" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1022" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1022" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1022" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>2050461</v>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1023" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1023" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1023" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1023" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1023" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>2057220</v>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1024" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1024" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1024" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1024" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1024" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>2057221</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1025" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1025" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1025" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1025" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1025" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>2057222</v>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1026" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1026" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1026" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1026" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1026" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>2057442</v>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1027" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1027" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1027" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1027" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1027" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>2057443</v>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1028" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1028" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1028" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1028" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1028" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>2057444</v>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1029" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1029" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1029" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1029" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1029" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>2057461</v>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1030" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1030" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1030" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1030" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1030" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>2057462</v>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1031" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1031" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1031" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1031" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1031" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>2057464</v>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1032" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1032" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1032" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1032" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1032" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>2057465</v>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1033" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1033" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1033" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1033" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1033" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>2057466</v>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1034" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1034" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1034" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1034" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1034" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>2057467</v>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1035" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1035" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1035" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1035" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1035" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>2057468</v>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1036" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1036" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1036" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1036" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1036" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>2057469</v>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1037" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1037" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1037" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1037" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1037" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>1238057</v>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1038" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1038" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1038" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1038" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1038" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>1238081</v>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1039" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1039" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1039" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1039" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1039" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>1238091</v>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1040" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1040" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1040" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1040" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1040" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>1238100</v>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1041" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1041" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1041" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1041" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1041" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>1238107</v>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1042" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1042" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1042" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1042" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1042" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>1238118</v>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1043" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1043" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1043" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1043" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1043" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>2052740</v>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1044" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1044" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1044" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1044" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1044" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>2052741</v>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1045" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1045" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1045" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1045" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1045" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>2052742</v>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1046" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1046" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1046" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1046" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1046" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>2052795</v>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1047" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1047" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1047" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1047" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1047" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>2052796</v>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1048" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1048" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1048" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1048" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1048" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>2052797</v>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1049" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1049" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1049" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1049" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1049" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>2052818</v>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1050" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1050" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1050" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1050" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1050" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>2052819</v>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1051" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1051" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1051" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1051" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1051" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>2052835</v>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1052" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1052" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1052" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1052" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1052" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>2052850</v>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1053" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1053" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1053" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1053" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1053" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>2052851</v>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1054" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1054" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1054" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1054" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1054" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>2052870</v>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1055" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1055" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1055" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1055" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1055" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>2052871</v>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1056" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1056" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1056" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1056" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1056" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>2050415</v>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1057" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1057" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1057" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1057" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1057" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>2050425</v>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1058" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1058" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1058" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1058" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1058" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>2050445</v>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1059" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1059" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1059" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1059" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1059" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>2050456</v>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1060" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1060" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1060" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1060" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1060" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>2050458</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1061" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1061" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1061" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1061" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1061" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>2057243</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1062" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1062" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1062" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1062" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1062" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>2057294</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1063" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1063" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1063" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1063" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1063" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>2057387</v>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1064" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1064" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1064" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1064" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1064" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>2057436</v>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1065" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1065" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1065" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1065" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1065" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>2057438</v>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1066" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1066" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1066" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1066" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1066" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>1237919</v>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1067" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1067" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1067" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1067" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1067" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>1237994</v>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/01/24</t>
+        </is>
+      </c>
+      <c r="C1068" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1068" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1068" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1068" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1068" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>2050378</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1069" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1069" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1069" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1069" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1069" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>2057289</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1070" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1070" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1070" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1070" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1070" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>2057303</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1071" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1071" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1071" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1071" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1071" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>2057304</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1072" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1072" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1072" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1072" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1072" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>2057313</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1073" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1073" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1073" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1073" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1073" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>2057384</v>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1074" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1074" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1074" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1074" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1074" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>2057391</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1075" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1075" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1075" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1075" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1075" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>2057426</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1076" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1076" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1076" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1076" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1076" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>2057459</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1077" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D1077" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="E1077" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="F1077" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1077" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BASE_DADOS.xlsx
+++ b/BASE_DADOS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1077"/>
+  <dimension ref="A1:G1110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31226,6 +31226,963 @@
         </is>
       </c>
     </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>2050419</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1078" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1078" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1078" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1078" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1078" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>2050435</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1079" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1079" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1079" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1079" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1079" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>2050447</v>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1080" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1080" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1080" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1080" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1080" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>2050460</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1081" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1081" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1081" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1081" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1081" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>2050464</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/01/24</t>
+        </is>
+      </c>
+      <c r="C1082" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1082" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1082" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1082" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1082" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>2057337</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1083" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1083" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1083" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1083" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1083" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>2057380</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1084" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1084" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1084" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1084" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1084" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>2057393</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1085" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1085" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1085" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1085" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1085" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>2057441</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1086" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1086" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1086" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1086" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1086" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>2057463</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1087" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1087" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1087" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1087" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1087" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>2057474</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1088" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1088" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1088" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1088" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1088" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>1243111</v>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1089" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1089" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1089" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1089" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1089" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>2055535</v>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/01/24</t>
+        </is>
+      </c>
+      <c r="C1090" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1090" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1090" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1090" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1090" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>2055536</v>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/01/24</t>
+        </is>
+      </c>
+      <c r="C1091" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1091" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1091" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1091" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1091" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>2055555</v>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/01/24</t>
+        </is>
+      </c>
+      <c r="C1092" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1092" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1092" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1092" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1092" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>2055556</v>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/01/24</t>
+        </is>
+      </c>
+      <c r="C1093" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1093" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1093" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1093" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1093" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>2055561</v>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/01/24</t>
+        </is>
+      </c>
+      <c r="C1094" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1094" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1094" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1094" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1094" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>2055562</v>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/01/24</t>
+        </is>
+      </c>
+      <c r="C1095" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1095" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1095" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1095" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1095" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>2057261</v>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1096" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1096" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1096" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1096" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1096" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>2057328</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1097" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1097" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1097" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1097" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1097" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>2057372</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1098" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1098" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1098" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1098" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1098" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>2057381</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1099" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1099" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1099" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1099" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1099" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>2057382</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1100" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1100" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1100" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1100" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1100" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>2057383</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1101" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1101" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1101" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1101" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1101" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>2059012</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17/01/24</t>
+        </is>
+      </c>
+      <c r="C1102" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1102" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1102" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1102" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1102" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>2055492</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/01/24</t>
+        </is>
+      </c>
+      <c r="C1103" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1103" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1103" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1103" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1103" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>2055493</v>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/01/24</t>
+        </is>
+      </c>
+      <c r="C1104" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1104" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1104" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1104" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1104" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>2057284</v>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16/01/24</t>
+        </is>
+      </c>
+      <c r="C1105" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1105" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1105" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1105" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1105" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>2055511</v>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/01/24</t>
+        </is>
+      </c>
+      <c r="C1106" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1106" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1106" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1106" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1106" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>2055532</v>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/01/24</t>
+        </is>
+      </c>
+      <c r="C1107" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1107" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1107" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1107" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1107" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>2055559</v>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/01/24</t>
+        </is>
+      </c>
+      <c r="C1108" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1108" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1108" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1108" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1108" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>2055560</v>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/01/24</t>
+        </is>
+      </c>
+      <c r="C1109" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1109" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1109" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1109" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1109" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>2055567</v>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/01/24</t>
+        </is>
+      </c>
+      <c r="C1110" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="D1110" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="E1110" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="F1110" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1110" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BASE_DADOS.xlsx
+++ b/BASE_DADOS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1743"/>
+  <dimension ref="A1:G1800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54332,6 +54332,2001 @@
         </is>
       </c>
     </row>
+    <row r="1744">
+      <c r="A1744" t="n">
+        <v>1453435</v>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1744" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1744" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1744" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1744" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1744" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="n">
+        <v>1453436</v>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1745" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1745" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1745" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1745" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1745" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="n">
+        <v>1453450</v>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1746" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1746" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1746" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1746" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1746" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="n">
+        <v>1453451</v>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1747" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1747" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1747" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1747" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="n">
+        <v>1453511</v>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1748" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1748" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1748" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1748" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1748" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="n">
+        <v>1453512</v>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1749" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1749" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1749" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1749" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1749" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="n">
+        <v>1453526</v>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1750" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1750" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1750" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1750" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1750" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="n">
+        <v>1453527</v>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1751" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1751" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1751" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1751" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1751" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="n">
+        <v>1453583</v>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1752" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1752" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1752" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1752" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="n">
+        <v>1453584</v>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1753" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1753" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1753" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1753" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1753" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="n">
+        <v>1453601</v>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1754" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1754" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1754" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1754" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1754" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="n">
+        <v>1453602</v>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1755" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1755" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1755" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1755" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1755" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="n">
+        <v>1453603</v>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1756" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1756" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1756" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1756" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="n">
+        <v>1453650</v>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1757" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1757" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1757" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="n">
+        <v>1453651</v>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1758" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1758" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1758" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>1453717</v>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1759" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1759" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1759" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>1453718</v>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1760" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1760" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1760" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>1453753</v>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1761" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1761" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1761" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>1453754</v>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1762" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1762" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1762" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>1460447</v>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1763" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1763" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1763" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>1460448</v>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1764" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1764" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1764" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="n">
+        <v>1460449</v>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1765" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1765" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1765" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="n">
+        <v>1460469</v>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1766" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1766" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1766" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="n">
+        <v>1460470</v>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1767" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1767" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1767" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="n">
+        <v>1460471</v>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1768" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1768" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1768" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="n">
+        <v>1460626</v>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1769" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1769" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1769" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="n">
+        <v>1460627</v>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1770" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1770" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1770" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="n">
+        <v>1460646</v>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1771" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1771" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1771" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="n">
+        <v>1460647</v>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1772" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1772" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1772" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1772" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1772" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="n">
+        <v>1460739</v>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1773" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1773" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1773" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1773" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1773" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="n">
+        <v>1460740</v>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1774" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1774" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1774" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1774" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1774" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="n">
+        <v>1460765</v>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1775" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1775" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1775" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1775" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1775" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="n">
+        <v>1460766</v>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1776" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1776" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1776" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1776" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1776" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="n">
+        <v>1460767</v>
+      </c>
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1777" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1777" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1777" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1777" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1777" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="n">
+        <v>1460768</v>
+      </c>
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1778" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1778" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1778" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1778" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1778" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="n">
+        <v>1460837</v>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1779" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1779" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1779" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1779" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1779" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="n">
+        <v>1460838</v>
+      </c>
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1780" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1780" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1780" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1780" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1780" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="n">
+        <v>1460839</v>
+      </c>
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1781" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1781" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1781" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1781" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1781" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="n">
+        <v>1460965</v>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1782" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1782" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1782" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1782" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1782" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="n">
+        <v>1460966</v>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1783" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1783" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1783" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1783" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1783" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="n">
+        <v>1460967</v>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1784" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1784" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1784" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1784" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1784" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="n">
+        <v>1461026</v>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1785" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1785" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1785" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1785" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1785" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="n">
+        <v>1461027</v>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1786" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1786" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1786" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1786" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1786" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="n">
+        <v>1461028</v>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C1787" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1787" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1787" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1787" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1787" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="n">
+        <v>1468991</v>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C1788" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1788" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1788" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1788" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1788" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="n">
+        <v>1468992</v>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C1789" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1789" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1789" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1789" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1789" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="n">
+        <v>1469014</v>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C1790" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1790" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1790" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1790" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1790" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="n">
+        <v>1469015</v>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C1791" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1791" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1791" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1791" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1791" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="n">
+        <v>1469016</v>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C1792" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1792" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1792" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1792" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1792" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="n">
+        <v>1469064</v>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C1793" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1793" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1793" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1793" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1793" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="n">
+        <v>1469065</v>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C1794" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1794" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1794" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1794" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1794" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="n">
+        <v>1469160</v>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C1795" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1795" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1795" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1795" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1795" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="n">
+        <v>1469161</v>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C1796" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1796" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1796" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1796" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1796" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="n">
+        <v>1469208</v>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C1797" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1797" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1797" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1797" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1797" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="n">
+        <v>1469209</v>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C1798" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1798" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1798" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1798" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1798" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="n">
+        <v>1469210</v>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C1799" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1799" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1799" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1799" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1799" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="n">
+        <v>1469346</v>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C1800" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D1800" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E1800" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F1800" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G1800" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BASE_DADOS.xlsx
+++ b/BASE_DADOS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2146"/>
+  <dimension ref="A1:G2240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68437,6 +68437,3296 @@
         </is>
       </c>
     </row>
+    <row r="2147">
+      <c r="A2147" t="n">
+        <v>1469483</v>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2147" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2147" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2147" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2147" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="n">
+        <v>1469484</v>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2148" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2148" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2148" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="n">
+        <v>1469485</v>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2149" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2149" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2149" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2149" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="n">
+        <v>1469486</v>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2150" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2150" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2150" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2150" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="n">
+        <v>1469487</v>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2151" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2151" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2151" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2151" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="n">
+        <v>1469488</v>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2152" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2152" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2152" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2152" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="n">
+        <v>1469497</v>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2153" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2153" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2153" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2153" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="n">
+        <v>1469498</v>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2154" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2154" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2154" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2154" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2154" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="n">
+        <v>1469499</v>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2155" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2155" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2155" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2155" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2155" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="n">
+        <v>1460444</v>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2156" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2156" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2156" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2156" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2156" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="n">
+        <v>1460445</v>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2157" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2157" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2157" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2157" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2157" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="n">
+        <v>1460446</v>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2158" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2158" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2158" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2158" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2158" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="n">
+        <v>1460585</v>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2159" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2159" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2159" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2159" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2159" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="n">
+        <v>1460586</v>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2160" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2160" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2160" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2160" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2160" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="n">
+        <v>1460587</v>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2161" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2161" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2161" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2161" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2161" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="n">
+        <v>1460588</v>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2162" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2162" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2162" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2162" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2162" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="n">
+        <v>1460759</v>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2163" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2163" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2163" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2163" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2163" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="n">
+        <v>1460760</v>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2164" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2164" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2164" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2164" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2164" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="n">
+        <v>1460761</v>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2165" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2165" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2165" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2165" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2165" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="n">
+        <v>1460762</v>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2166" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2166" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2166" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2166" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2166" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="n">
+        <v>1460763</v>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2167" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2167" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2167" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2167" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2167" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="n">
+        <v>1460764</v>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2168" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2168" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2168" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2168" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2168" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="n">
+        <v>1460788</v>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2169" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2169" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2169" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2169" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2169" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="n">
+        <v>1460789</v>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2170" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2170" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2170" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2170" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2170" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="n">
+        <v>1460790</v>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2171" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2171" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2171" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2171" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2171" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="n">
+        <v>1460879</v>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2172" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2172" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2172" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2172" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2172" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="n">
+        <v>1460880</v>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2173" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2173" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2173" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2173" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2173" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="n">
+        <v>1460881</v>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2174" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2174" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2174" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2174" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2174" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="n">
+        <v>1460946</v>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2175" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2175" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2175" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2175" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="n">
+        <v>1460948</v>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2176" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2176" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2176" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2176" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="n">
+        <v>1461042</v>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2177" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2177" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2177" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="n">
+        <v>1461043</v>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2178" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2178" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2178" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2178" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="n">
+        <v>1461044</v>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2179" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2179" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2179" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2179" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="n">
+        <v>1461045</v>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2180" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2180" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2180" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2180" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="n">
+        <v>1461046</v>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2181" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2181" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2181" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2181" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="n">
+        <v>1461047</v>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2182" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2182" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2182" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2182" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="n">
+        <v>1461048</v>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2183" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2183" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2183" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2183" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="n">
+        <v>1461060</v>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2184" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2184" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2184" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2184" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="n">
+        <v>1461115</v>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2185" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2185" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2185" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2185" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="n">
+        <v>1461116</v>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2186" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2186" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2186" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2186" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="n">
+        <v>1461117</v>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2187" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2187" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2187" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="n">
+        <v>1469009</v>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2188" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2188" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2188" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2188" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="n">
+        <v>1469010</v>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2189" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2189" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2189" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2189" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="n">
+        <v>1469011</v>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2190" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2190" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2190" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2190" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="n">
+        <v>1469012</v>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2191" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2191" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2191" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2191" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="n">
+        <v>1469013</v>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2192" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2192" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2192" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2192" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="n">
+        <v>1469024</v>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2193" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2193" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2193" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2193" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="n">
+        <v>1469028</v>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2194" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2194" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2194" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2194" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="n">
+        <v>1469029</v>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2195" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2195" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2195" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2195" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="n">
+        <v>1469087</v>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2196" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2196" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2196" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="n">
+        <v>1469088</v>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2197" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2197" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2197" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2197" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="n">
+        <v>1469089</v>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2198" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2198" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2198" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2198" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="n">
+        <v>1469090</v>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2199" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2199" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2199" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2199" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="n">
+        <v>1469097</v>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2200" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2200" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2200" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2200" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="n">
+        <v>1469098</v>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2201" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2201" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2201" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2201" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="n">
+        <v>1469104</v>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2202" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2202" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2202" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2202" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2202" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="n">
+        <v>1469105</v>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2203" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2203" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2203" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2203" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2203" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="n">
+        <v>1469106</v>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2204" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2204" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2204" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2204" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="n">
+        <v>1469144</v>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2205" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2205" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2205" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2205" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="n">
+        <v>1469146</v>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2206" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2206" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2206" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2206" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="n">
+        <v>1469153</v>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2207" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2207" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2207" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2207" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="n">
+        <v>1469154</v>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2208" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2208" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2208" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2208" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="n">
+        <v>1469155</v>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2209" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2209" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2209" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2209" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="n">
+        <v>1469222</v>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2210" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2210" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2210" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2210" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="n">
+        <v>1469223</v>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2211" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2211" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2211" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2211" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2211" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="n">
+        <v>1469224</v>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2212" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2212" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2212" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2212" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="n">
+        <v>1469225</v>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2213" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2213" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2213" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2213" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="n">
+        <v>1469226</v>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2214" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2214" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2214" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2214" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="n">
+        <v>1469227</v>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2215" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2215" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2215" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2215" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="n">
+        <v>1469228</v>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2216" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2216" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2216" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2216" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="n">
+        <v>1469241</v>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2217" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2217" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2217" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2217" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="n">
+        <v>1469300</v>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2218" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2218" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2218" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2218" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="n">
+        <v>1469301</v>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2219" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2219" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2219" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2219" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="n">
+        <v>1469302</v>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2220" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2220" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2220" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2220" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="n">
+        <v>1469343</v>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2221" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2221" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2221" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2221" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2221" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="n">
+        <v>1469344</v>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2222" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2222" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2222" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2222" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2222" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="n">
+        <v>1469345</v>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2223" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2223" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2223" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2223" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="n">
+        <v>1469462</v>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2224" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2224" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2224" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2224" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="n">
+        <v>1469463</v>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2225" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2225" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2225" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2225" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="n">
+        <v>1469464</v>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2226" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2226" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2226" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2226" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="n">
+        <v>1450321</v>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>21/05/2024</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2227" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2227" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2227" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2227" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="n">
+        <v>1450322</v>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>21/05/2024</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2228" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2228" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2228" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2228" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="n">
+        <v>1450323</v>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>21/05/2024</t>
+        </is>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2229" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2229" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2229" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2229" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="n">
+        <v>1450324</v>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>21/05/2024</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2230" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2230" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2230" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2230" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="n">
+        <v>1453645</v>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2231" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2231" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2231" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2231" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="n">
+        <v>1453646</v>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2232" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2232" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2232" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2232" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="n">
+        <v>1460091</v>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2233" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2233" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2233" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2233" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="n">
+        <v>1460418</v>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2234" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2234" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2234" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2234" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="n">
+        <v>1460419</v>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2235" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2235" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2235" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2235" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="n">
+        <v>1460420</v>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2236" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2236" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2236" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2236" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="n">
+        <v>1460538</v>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2237" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2237" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2237" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2237" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="n">
+        <v>1460539</v>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2238" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2238" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2238" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2238" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="n">
+        <v>1460540</v>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2239" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2239" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2239" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2239" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="n">
+        <v>1460600</v>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2240" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2240" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2240" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2240" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BASE_DADOS.xlsx
+++ b/BASE_DADOS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2240"/>
+  <dimension ref="A1:G2317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71727,6 +71727,2701 @@
         </is>
       </c>
     </row>
+    <row r="2241">
+      <c r="A2241" t="n">
+        <v>1460601</v>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2241" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2241" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2241" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2241" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="n">
+        <v>1460602</v>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2242" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2242" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2242" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2242" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2242" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="n">
+        <v>1460603</v>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2243" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2243" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2243" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2243" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2243" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="n">
+        <v>1460684</v>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2244" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2244" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2244" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2244" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2244" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="n">
+        <v>1460685</v>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2245" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2245" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2245" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2245" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="n">
+        <v>1460686</v>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2246" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2246" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2246" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2246" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="n">
+        <v>1460694</v>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2247" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2247" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2247" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2247" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2247" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="n">
+        <v>1460695</v>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2248" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2248" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2248" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2248" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2248" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="n">
+        <v>1460696</v>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2249" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2249" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2249" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2249" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2249" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="n">
+        <v>1460697</v>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2250" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2250" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2250" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2250" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2250" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="n">
+        <v>1460755</v>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2251" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2251" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2251" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2251" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2251" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="n">
+        <v>1460756</v>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2252" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2252" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2252" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2252" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="n">
+        <v>1460757</v>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2253" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2253" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2253" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2253" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" t="n">
+        <v>1460758</v>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2254" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2254" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2254" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2254" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="n">
+        <v>1460809</v>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2255" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2255" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2255" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2255" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="n">
+        <v>1460810</v>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2256" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2256" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2256" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2256" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2256" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="n">
+        <v>1460811</v>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2257" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2257" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2257" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2257" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2257" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="n">
+        <v>1460812</v>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2258" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2258" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2258" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2258" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2258" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="n">
+        <v>1460830</v>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2259" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2259" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2259" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2259" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2259" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="n">
+        <v>1460831</v>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2260" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2260" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2260" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2260" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2260" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="n">
+        <v>1460832</v>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2261" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2261" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2261" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2261" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="n">
+        <v>1460863</v>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2262" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2262" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2262" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2262" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="n">
+        <v>1460864</v>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2263" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2263" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2263" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2263" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="n">
+        <v>1460865</v>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2264" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2264" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2264" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2264" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="n">
+        <v>1460882</v>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2265" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2265" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2265" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2265" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="n">
+        <v>1460883</v>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2266" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2266" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2266" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2266" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="n">
+        <v>1460884</v>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2267" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2267" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2267" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2267" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2267" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="n">
+        <v>1460885</v>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2268" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2268" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2268" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2268" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2268" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="n">
+        <v>1461057</v>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2269" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2269" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2269" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2269" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2269" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="n">
+        <v>1461058</v>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2270" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2270" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2270" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2270" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2270" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="n">
+        <v>1461059</v>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2271" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2271" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2271" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2271" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2271" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="n">
+        <v>1468958</v>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2272" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2272" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2272" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2272" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2272" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="n">
+        <v>1468959</v>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2273" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2273" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2273" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2273" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2273" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="n">
+        <v>1469006</v>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2274" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2274" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2274" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2274" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="n">
+        <v>1469007</v>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2275" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2275" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2275" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2275" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2275" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="n">
+        <v>1469008</v>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2276" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2276" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2276" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2276" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2276" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="n">
+        <v>1469043</v>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2277" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2277" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2277" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2277" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2277" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="n">
+        <v>1469044</v>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2278" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2278" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2278" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2278" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2278" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="n">
+        <v>1469045</v>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2279" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2279" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2279" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2279" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="n">
+        <v>1469058</v>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2280" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2280" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2280" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2280" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2280" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="n">
+        <v>1469059</v>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2281" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2281" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2281" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2281" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="n">
+        <v>1469082</v>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2282" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2282" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2282" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2282" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2282" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="n">
+        <v>1469083</v>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2283" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2283" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2283" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2283" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="n">
+        <v>1469099</v>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2284" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2284" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2284" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2284" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2284" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="n">
+        <v>1469100</v>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2285" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2285" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2285" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2285" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2285" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="n">
+        <v>1469101</v>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2286" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2286" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="n">
+        <v>1469236</v>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2287" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2287" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="n">
+        <v>1469237</v>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2288" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2288" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2288" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="n">
+        <v>1469238</v>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2289" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2289" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2289" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2289" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="n">
+        <v>1469239</v>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2290" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2290" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2290" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2290" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="n">
+        <v>1469319</v>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2291" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2291" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2291" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2291" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="n">
+        <v>1469320</v>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2292" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2292" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2292" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="n">
+        <v>1469321</v>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2293" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2293" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2293" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="n">
+        <v>1469423</v>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2294" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2294" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2294" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="n">
+        <v>1469424</v>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2295" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2295" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2295" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="n">
+        <v>1469425</v>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2296" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2296" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2296" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2296" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="n">
+        <v>1469474</v>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2297" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2297" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2297" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2297" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="n">
+        <v>1469475</v>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2298" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2298" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2298" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="n">
+        <v>1469476</v>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2299" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2299" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2299" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2299" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="n">
+        <v>1469575</v>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2300" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2300" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2300" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2300" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="n">
+        <v>1469576</v>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2301" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2301" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2301" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="n">
+        <v>1469577</v>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2302" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2302" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2302" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2302" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="n">
+        <v>1469582</v>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2303" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2303" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2303" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2303" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="n">
+        <v>1460456</v>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2304" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2304" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2304" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2304" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="n">
+        <v>1460457</v>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2305" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2305" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2305" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2305" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2305" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="n">
+        <v>1460458</v>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2306" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2306" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2306" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2306" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2306" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="n">
+        <v>1460459</v>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2307" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2307" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2307" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2307" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2307" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="n">
+        <v>1460463</v>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2308" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2308" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2308" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2308" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="n">
+        <v>1460464</v>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2309" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2309" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2309" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2309" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2309" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="n">
+        <v>1460465</v>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2310" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2310" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2310" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2310" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2310" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="n">
+        <v>1460607</v>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2311" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2311" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2311" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2311" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="n">
+        <v>1460608</v>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2312" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2312" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2312" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2312" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="n">
+        <v>1460609</v>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2313" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2313" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2313" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2313" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="n">
+        <v>1460690</v>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2314" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2314" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2314" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2314" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2314" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="n">
+        <v>1460691</v>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2315" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2315" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2315" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2315" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2315" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="n">
+        <v>1460692</v>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2316" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2316" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2316" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2316" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2316" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="n">
+        <v>1460693</v>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2317" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2317" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2317" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2317" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2317" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BASE_DADOS.xlsx
+++ b/BASE_DADOS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2317"/>
+  <dimension ref="A1:G2319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74422,6 +74422,76 @@
         </is>
       </c>
     </row>
+    <row r="2318">
+      <c r="A2318" t="n">
+        <v>1460872</v>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2318" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2318" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2318" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2318" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="n">
+        <v>1460873</v>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C2319" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2319" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2319" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2319" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2319" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BASE_DADOS.xlsx
+++ b/BASE_DADOS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2319"/>
+  <dimension ref="A1:G2320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74492,6 +74492,41 @@
         </is>
       </c>
     </row>
+    <row r="2320">
+      <c r="A2320" t="n">
+        <v>1469201</v>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>04/06/202422:00</t>
+        </is>
+      </c>
+      <c r="D2320" t="inlineStr">
+        <is>
+          <t>04/06/202422:01</t>
+        </is>
+      </c>
+      <c r="E2320" t="inlineStr">
+        <is>
+          <t>04/06/202422:02</t>
+        </is>
+      </c>
+      <c r="F2320" t="inlineStr">
+        <is>
+          <t>Entregue</t>
+        </is>
+      </c>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
